--- a/管理・設計ドキュメント/02_基本設計/13x.テーブル設計/130.テーブル一覧.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/13x.テーブル設計/130.テーブル一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\03.夢の宅配便\02_基本設計\13x.テーブル設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\02_基本設計\13x.テーブル設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2D44A9-417B-4001-9F82-C725B739B719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B373ACEA-8F64-4533-83ED-2AE43E6DE395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24375" windowHeight="14925" tabRatio="758" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="630" windowWidth="24375" windowHeight="14925" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="64" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>改訂日</t>
   </si>
@@ -828,20 +828,6 @@
   </si>
   <si>
     <t>product_transaction_lists_histories</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>featured_product_masters</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注目商品マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウヒン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1073,17 +1059,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フェーズ１
-作業状況</t>
-    <rPh sb="6" eb="8">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完</t>
     <rPh sb="0" eb="1">
       <t>カン</t>
@@ -1165,9 +1140,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>テーブル名変更（注目商品マスタ　⇒　タグマスタ）</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">サイトのトップページで紹介する商品のタグを管理するマスタ。
-</t>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>featured_product_masters</t>
     </r>
     <r>
       <rPr>
@@ -1177,8 +1169,83 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>※フェーズ２以降では、タグ管理マスタとして扱い方を変えるか検討中。</t>
+      <t xml:space="preserve">
+tag_masters</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>注目商品マスタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+タグマスタ</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>チュウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サイトのトップページで紹介する商品のタグを管理するマスタ。
+※フェーズ２以降では、タグ管理マスタとして扱い方を変えるか検討中。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+商品のタグを管理するマスタ</t>
+    </r>
+    <rPh sb="64" eb="66">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェーズ２までの
+作業状況</t>
+    <rPh sb="9" eb="11">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウキョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1438,7 +1505,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1544,6 +1611,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1869,7 +1942,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
@@ -1923,9 +1996,15 @@
         <f t="shared" ref="A5:A51" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7">
@@ -2356,10 +2435,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
@@ -2369,7 +2448,7 @@
     <col min="3" max="3" width="36.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="62.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="40.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="4" customWidth="1"/>
     <col min="7" max="16384" width="2.625" style="4"/>
   </cols>
   <sheetData>
@@ -2412,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G3" s="21"/>
     </row>
@@ -2422,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>17</v>
@@ -2434,7 +2513,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G4" s="21"/>
     </row>
@@ -2453,10 +2532,10 @@
         <v>24</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G5" s="21"/>
     </row>
@@ -2478,7 +2557,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G6" s="21"/>
     </row>
@@ -2494,13 +2573,13 @@
         <v>22</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="21"/>
     </row>
@@ -2519,10 +2598,10 @@
         <v>26</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G8" s="21"/>
     </row>
@@ -2541,10 +2620,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G9" s="33"/>
     </row>
@@ -2563,10 +2642,10 @@
         <v>27</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G10" s="21"/>
     </row>
@@ -2576,20 +2655,20 @@
         <v>8</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>77</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>79</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27">
@@ -2608,7 +2687,7 @@
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G12" s="21"/>
     </row>
@@ -2630,7 +2709,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G13" s="21"/>
     </row>
@@ -2648,7 +2727,7 @@
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G14" s="21"/>
     </row>
@@ -2667,10 +2746,10 @@
         <v>28</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G15" s="21"/>
     </row>
@@ -2689,10 +2768,10 @@
         <v>53</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>67</v>
@@ -2713,10 +2792,10 @@
         <v>55</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>66</v>
@@ -2728,17 +2807,17 @@
         <v>15</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>82</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>84</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G18" s="21"/>
     </row>
@@ -2757,10 +2836,10 @@
         <v>46</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G19" s="21"/>
     </row>
@@ -2779,10 +2858,10 @@
         <v>48</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G20" s="21"/>
     </row>
@@ -2802,7 +2881,7 @@
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G21" s="21"/>
     </row>
@@ -2818,11 +2897,11 @@
         <v>60</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G22" s="21"/>
     </row>
@@ -2844,29 +2923,29 @@
         <v>64</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" ht="40.5">
+    <row r="24" spans="1:7" ht="54">
       <c r="A24" s="26">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>75</v>
-      </c>
       <c r="F24" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G24" s="21"/>
     </row>
